--- a/NformTester/NformTester/Keywordscripts/900.20.40_ReflectedWithChangeMade.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.20.40_ReflectedWithChangeMade.xlsx
@@ -1374,6 +1374,7 @@
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CM:$CM</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4996,7 +4997,7 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
